--- a/ERP/GUI/Data_Entry.xlsx
+++ b/ERP/GUI/Data_Entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,6 +858,35 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Demetrrio</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
